--- a/comparativa_semanal_resumida.xlsx
+++ b/comparativa_semanal_resumida.xlsx
@@ -491,42 +491,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>98,553</t>
+          <t>6,621</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>105,070</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-98,450</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>111,973</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-13,420</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-6,903</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>121,070</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>-9,098</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>83,068</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>38,002</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>414,664</t>
+          <t>344,734</t>
         </is>
       </c>
     </row>
@@ -538,42 +538,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>13,969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>20,338</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-6,369</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>21,175</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-837</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>20,462</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>713</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21,168</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-706</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>83,143</t>
+          <t>75,944</t>
         </is>
       </c>
     </row>
@@ -585,42 +585,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18,840</t>
+          <t>30,911</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>22,648</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8,263</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>37,657</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-18,816</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-15,009</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>7,419</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>30,238</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>14,000</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-6,581</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>77,916</t>
+          <t>98,635</t>
         </is>
       </c>
     </row>
@@ -632,42 +632,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>96,584</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>96,617</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>80,788</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15,829</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>92,738</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3,880</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>93,819</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-13,031</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>101,920</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-8,101</t>
+          <t>-1,081</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>373,144</t>
+          <t>379,758</t>
         </is>
       </c>
     </row>
@@ -679,42 +679,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>14,452</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>6,295</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8,157</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>23,939</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-17,644</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>8,700</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>15,240</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>18,440</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-9,741</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>57,375</t>
+          <t>53,386</t>
         </is>
       </c>
     </row>
@@ -731,37 +731,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40,639</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-40,639</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>67,840</t>
+          <t>43,821</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-27,201</t>
+          <t>-43,821</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17,373</t>
+          <t>70,220</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>50,467</t>
+          <t>-26,398</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>125,852</t>
+          <t>114,041</t>
         </is>
       </c>
     </row>
